--- a/DATA_goal/Junction_Flooding_27.xlsx
+++ b/DATA_goal/Junction_Flooding_27.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1690,110 +1690,6 @@
         <v>6.07</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>36373.07637731481</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>14.63</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>20.82</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="O12" s="4" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="S12" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v>72.78</v>
-      </c>
-      <c r="U12" s="4" t="n">
-        <v>14.73</v>
-      </c>
-      <c r="V12" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="AA12" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AB12" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="AC12" s="4" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="AD12" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="AE12" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AF12" s="4" t="n">
-        <v>18.94</v>
-      </c>
-      <c r="AG12" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AH12" s="4" t="n">
-        <v>6.07</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DATA_goal/Junction_Flooding_27.xlsx
+++ b/DATA_goal/Junction_Flooding_27.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>36373.00694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>12.77</v>
+        <v>1.28</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>27.78</v>
+        <v>2.78</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>20.77</v>
+        <v>2.08</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>9.82</v>
+        <v>0.98</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>29.19</v>
+        <v>2.92</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>15.71</v>
+        <v>1.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.22</v>
+        <v>0.62</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10.93</v>
+        <v>1.09</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>11.76</v>
+        <v>1.18</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.26</v>
+        <v>0.33</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.15</v>
+        <v>1.02</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>13.87</v>
+        <v>1.39</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="S2" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="Z2" s="4" t="n">
         <v>1.59</v>
       </c>
-      <c r="T2" s="4" t="n">
-        <v>147.12</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>28.07</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>15.86</v>
-      </c>
       <c r="AA2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.65</v>
+        <v>0.77</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.07</v>
+        <v>0.91</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.38</v>
+        <v>1.14</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>26.43</v>
+        <v>2.64</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.96</v>
+        <v>0.5</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>36373.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.34</v>
+        <v>1.23</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.83</v>
+        <v>0.88</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>27.11</v>
+        <v>2.71</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>21.24</v>
+        <v>2.12</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.59</v>
+        <v>0.96</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>36.89</v>
+        <v>3.69</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.12</v>
+        <v>1.51</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.44</v>
+        <v>0.64</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.81</v>
+        <v>1.08</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.6</v>
+        <v>1.16</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>13.68</v>
+        <v>1.37</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.35</v>
+        <v>0.13</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>141.46</v>
+        <v>14.15</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>27.35</v>
+        <v>2.73</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>17.96</v>
+        <v>1.8</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.34</v>
+        <v>0.93</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.87</v>
+        <v>0.19</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>18.41</v>
+        <v>1.84</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.25</v>
+        <v>0.73</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>33.94</v>
+        <v>3.39</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>36373.02083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.24</v>
+        <v>0.72</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>21.93</v>
+        <v>2.19</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>17.32</v>
+        <v>1.73</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.76</v>
+        <v>0.78</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>31.66</v>
+        <v>3.17</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.22</v>
+        <v>1.22</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.26</v>
+        <v>0.53</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.61</v>
+        <v>0.76</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.77</v>
+        <v>0.88</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.41</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.54</v>
+        <v>0.25</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.1</v>
+        <v>1.11</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG4" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AH4" s="4" t="n">
         <v>0.91</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>112.85</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>22.12</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>14.59</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>15.35</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>29.03</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AH4" s="4" t="n">
-        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>36373.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.5</v>
+        <v>0.95</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.98</v>
+        <v>0.7</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AH5" s="4" t="n">
         <v>0.87</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>16.65</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>29.84</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>107.12</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>21.05</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>14.42</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>27.23</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>8.68</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>36373.03472222222</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>8.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>5.95</v>
+        <v>0.6</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>17.76</v>
+        <v>1.78</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>14.18</v>
+        <v>1.42</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>6.31</v>
+        <v>0.63</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>25.8</v>
+        <v>2.58</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>4.32</v>
+        <v>0.43</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>6.27</v>
+        <v>0.63</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>7.12</v>
+        <v>0.71</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>7.62</v>
+        <v>0.76</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.05</v>
+        <v>0.21</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>5.54</v>
+        <v>0.55</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>89.95</v>
+        <v>9</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>17.91</v>
+        <v>1.79</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>11.89</v>
+        <v>1.19</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>6.22</v>
+        <v>0.62</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>12.42</v>
+        <v>1.24</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>5.21</v>
+        <v>0.52</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>5.51</v>
+        <v>0.55</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>7.46</v>
+        <v>0.75</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>23.57</v>
+        <v>2.36</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>3.25</v>
+        <v>0.32</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>7.38</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>36373.04166666666</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>11.45</v>
+        <v>1.15</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>8.52</v>
+        <v>0.85</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA7" s="4" t="n">
         <v>0.74</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>25.08</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>20.31</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>34.26</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>13.96</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>130</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>16.86</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>16.75</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>7.36</v>
-      </c>
       <c r="AB7" s="4" t="n">
-        <v>6.55</v>
+        <v>0.66</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>7.7</v>
+        <v>0.77</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>10.56</v>
+        <v>1.06</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>31.11</v>
+        <v>3.11</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>4.65</v>
+        <v>0.47</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>36373.04861111111</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>7.1</v>
+        <v>0.71</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>20.9</v>
+        <v>2.09</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>16.92</v>
+        <v>1.69</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>7.48</v>
+        <v>0.75</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>30.19</v>
+        <v>3.02</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>11.63</v>
+        <v>1.16</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>5.14</v>
+        <v>0.51</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>7.54</v>
+        <v>0.75</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>8.94</v>
+        <v>0.89</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>2.42</v>
+        <v>0.24</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>7.52</v>
+        <v>0.75</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>10.68</v>
+        <v>1.07</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>6.41</v>
+        <v>0.64</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>107.12</v>
+        <v>10.71</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>21.07</v>
+        <v>2.11</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>6.94</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>14.1</v>
+        <v>1.41</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>7.38</v>
+        <v>0.74</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>14.59</v>
+        <v>1.46</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>6.13</v>
+        <v>0.61</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>5.47</v>
+        <v>0.55</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>6.42</v>
+        <v>0.64</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>27.55</v>
+        <v>2.75</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>3.87</v>
+        <v>0.39</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>36373.05555555555</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>9.06</v>
+        <v>0.91</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>6.75</v>
+        <v>0.68</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>19.86</v>
+        <v>1.99</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>16.1</v>
+        <v>1.61</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>7.11</v>
+        <v>0.71</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>28.44</v>
+        <v>2.84</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>11.05</v>
+        <v>1.11</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>4.89</v>
+        <v>0.49</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>7.18</v>
+        <v>0.72</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>7.96</v>
+        <v>0.8</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>8.49</v>
+        <v>0.85</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.29</v>
+        <v>0.23</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>7.14</v>
+        <v>0.71</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>10.15</v>
+        <v>1.01</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>6.07</v>
+        <v>0.61</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AD9" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AE9" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF9" s="4" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AG9" s="4" t="n">
         <v>0.37</v>
       </c>
-      <c r="T9" s="4" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>13.39</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>13.73</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>3.68</v>
-      </c>
       <c r="AH9" s="4" t="n">
-        <v>8.24</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>36373.0625</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>7.15</v>
+        <v>0.71</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>5.32</v>
+        <v>0.53</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>15.68</v>
+        <v>1.57</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>12.68</v>
+        <v>1.27</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>5.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>23.17</v>
+        <v>2.32</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>8.73</v>
+        <v>0.87</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>3.86</v>
+        <v>0.39</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>6.29</v>
+        <v>0.63</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>6.71</v>
+        <v>0.67</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.81</v>
+        <v>0.18</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>8.01</v>
+        <v>0.8</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>4.81</v>
+        <v>0.48</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>78.51000000000001</v>
+        <v>7.85</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>15.82</v>
+        <v>1.58</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>5.21</v>
+        <v>0.52</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>10.58</v>
+        <v>1.06</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>5.54</v>
+        <v>0.55</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>11.12</v>
+        <v>1.11</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>4.6</v>
+        <v>0.46</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>4.1</v>
+        <v>0.41</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>4.82</v>
+        <v>0.48</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>6.6</v>
+        <v>0.66</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>21.15</v>
+        <v>2.12</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>2.9</v>
+        <v>0.29</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>6.51</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_27.xlsx
+++ b/DATA_goal/Junction_Flooding_27.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>36373.00694444445</v>
+        <v>44042.17430555556</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H2" s="4" t="n">
         <v>2.78</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="G2" s="4" t="n">
+      <c r="I2" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="O2" s="4" t="n">
         <v>0.98</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>1.02</v>
-      </c>
       <c r="P2" s="4" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>14.71</v>
+        <v>14.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.81</v>
+        <v>2.7</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.91</v>
+        <v>0.85</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.64</v>
+        <v>2.52</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>36373.01388888889</v>
+        <v>44042.18125</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.23</v>
+        <v>0.52</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.88</v>
+        <v>0.34</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.71</v>
+        <v>1.14</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.12</v>
+        <v>0.82</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.96</v>
+        <v>0.39</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.69</v>
+        <v>1.77</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.51</v>
+        <v>0.64</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.25</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.93</v>
+        <v>0.34</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.08</v>
+        <v>0.45</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.16</v>
+        <v>0.5</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.31</v>
+        <v>0.13</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.98</v>
+        <v>0.41</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.37</v>
+        <v>0.57</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.86</v>
+        <v>0.39</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0.13</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>14.15</v>
+        <v>5.56</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.73</v>
+        <v>1.17</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.9</v>
+        <v>0.38</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.8</v>
+        <v>0.74</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.93</v>
+        <v>0.38</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.84</v>
+        <v>0.88</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.8</v>
+        <v>0.34</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.73</v>
+        <v>0.32</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.85</v>
+        <v>0.37</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.13</v>
+        <v>0.47</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.39</v>
+        <v>1.68</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.49</v>
+        <v>0.19</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.13</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>36373.02083333334</v>
+        <v>44042.18819444445</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.72</v>
+        <v>1.05</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.19</v>
+        <v>3.13</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.73</v>
+        <v>2.51</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.78</v>
+        <v>1.12</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.17</v>
+        <v>4.09</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.22</v>
+        <v>1.75</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.53</v>
+        <v>0.76</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.76</v>
+        <v>1.11</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.88</v>
+        <v>1.25</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.34</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.79</v>
+        <v>1.13</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.11</v>
+        <v>1.59</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>11.28</v>
+        <v>16.43</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.21</v>
+        <v>3.14</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.73</v>
+        <v>1.04</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.46</v>
+        <v>2.09</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.76</v>
+        <v>1.1</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.53</v>
+        <v>2.03</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.92</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.83</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.92</v>
+        <v>1.32</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.9</v>
+        <v>3.71</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.58</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.91</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>36373.02777777778</v>
+        <v>44042.19513888889</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.95</v>
+        <v>1.62</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.09</v>
+        <v>3.55</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.67</v>
+        <v>2.87</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.74</v>
+        <v>1.27</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.98</v>
+        <v>4.93</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.16</v>
+        <v>1.98</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.87</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.74</v>
+        <v>1.28</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.84</v>
+        <v>1.42</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.9</v>
+        <v>1.52</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.24</v>
+        <v>0.41</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.75</v>
+        <v>1.28</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.06</v>
+        <v>1.81</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.65</v>
+        <v>1.09</v>
       </c>
       <c r="R5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>10.71</v>
+        <v>18.72</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.1</v>
+        <v>3.57</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.4</v>
+        <v>2.39</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.73</v>
+        <v>1.25</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.44</v>
+        <v>2.42</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.61</v>
+        <v>1.04</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.93</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.65</v>
+        <v>1.09</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.88</v>
+        <v>1.5</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.72</v>
+        <v>4.5</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.66</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.87</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>36373.03472222222</v>
+        <v>44042.20208333333</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>15.3</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.6</v>
+        <v>11.36</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.78</v>
+        <v>33.44</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.42</v>
+        <v>27.14</v>
       </c>
       <c r="G6" s="4" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>47.56</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>17.09</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="R6" s="4" t="n">
         <v>0.63</v>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="K6" s="4" t="n">
+      <c r="S6" s="4" t="n">
         <v>0.63</v>
       </c>
-      <c r="L6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="T6" s="4" t="n">
-        <v>9</v>
+        <v>175.8</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>1.79</v>
+        <v>33.67</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.59</v>
+        <v>11.1</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.19</v>
+        <v>22.56</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.62</v>
+        <v>11.82</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.11</v>
+        <v>1.81</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.24</v>
+        <v>23.07</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.52</v>
+        <v>9.81</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.47</v>
+        <v>8.73</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.55</v>
+        <v>10.25</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.75</v>
+        <v>14.08</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>2.36</v>
+        <v>43.32</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.32</v>
+        <v>6.22</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>36373.04166666666</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>36373.04861111111</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>36373.05555555555</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>10.14</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>36373.0625</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>36373.06944444445</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>14.63</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>21.16</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>72.78</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>14.74</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>10.18</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>19.28</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>6.07</v>
+        <v>13.88</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_27.xlsx
+++ b/DATA_goal/Junction_Flooding_27.xlsx
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
@@ -461,14 +461,14 @@
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
@@ -655,103 +655,103 @@
         <v>44042.17430555556</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.23</v>
+        <v>12.34</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.67</v>
+        <v>26.72</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.98</v>
+        <v>19.8</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.78</v>
+        <v>27.82</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.51</v>
+        <v>15.12</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.6</v>
+        <v>5.95</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.87</v>
+        <v>8.67</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.52</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.14</v>
+        <v>11.37</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.98</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.32</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.83</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.74</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>14.14</v>
+        <v>141.4</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.7</v>
+        <v>27.01</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.72</v>
+        <v>17.24</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.89</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.65</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.53</v>
+        <v>15.25</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.4</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.1</v>
+        <v>11.03</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.86</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.52</v>
+        <v>25.23</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.47</v>
+        <v>4.73</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44042.18125</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.16</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.44</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.14</v>
+        <v>11.43</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.9</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.77</v>
+        <v>17.71</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.4</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.55</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.45</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.5</v>
+        <v>4.97</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.14</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.66</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.95</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>5.56</v>
+        <v>55.65</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.74</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.82</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.4</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.77</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.84</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.23</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.68</v>
+        <v>16.76</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.92</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44042.18819444445</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.31</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.49</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.13</v>
+        <v>31.33</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.51</v>
+        <v>25.08</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.16</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.09</v>
+        <v>40.88</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.75</v>
+        <v>17.45</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.6</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.12</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.55</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.41</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.59</v>
+        <v>15.91</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>16.43</v>
+        <v>164.33</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.14</v>
+        <v>31.44</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.09</v>
+        <v>20.9</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.1</v>
+        <v>10.96</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.85</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.03</v>
+        <v>20.34</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.26</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.68</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.71</v>
+        <v>37.15</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.75</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44042.19513888889</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.62</v>
+        <v>16.25</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.2</v>
+        <v>12.03</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.55</v>
+        <v>35.52</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.87</v>
+        <v>28.74</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.27</v>
+        <v>12.71</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.93</v>
+        <v>49.33</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.98</v>
+        <v>19.78</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.81</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.42</v>
+        <v>14.24</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.52</v>
+        <v>15.18</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.11</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.78</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.81</v>
+        <v>18.13</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.88</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>18.72</v>
+        <v>187.24</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.57</v>
+        <v>35.75</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.39</v>
+        <v>23.91</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.53</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.2</v>
+        <v>1.96</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.42</v>
+        <v>24.17</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.42</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.91</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.5</v>
+        <v>14.95</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.5</v>
+        <v>44.98</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.59</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_27.xlsx
+++ b/DATA_goal/Junction_Flooding_27.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,79 +655,79 @@
         <v>44042.17430555556</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>12.34</v>
+        <v>12.343</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.24</v>
+        <v>8.237</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.47</v>
+        <v>3.467</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>26.72</v>
+        <v>26.724</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>19.8</v>
+        <v>19.801</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>9.41</v>
+        <v>9.406000000000001</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>27.82</v>
+        <v>27.816</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>15.12</v>
+        <v>15.125</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.95</v>
+        <v>5.951</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>8.67</v>
+        <v>8.669</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10.52</v>
+        <v>10.525</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>11.37</v>
+        <v>11.375</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.13</v>
+        <v>3.134</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>9.775</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>13.32</v>
+        <v>13.324</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>8.83</v>
+        <v>8.832000000000001</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>2.74</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.54</v>
+        <v>1.542</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>141.4</v>
+        <v>141.399</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>27.01</v>
+        <v>27.009</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>17.24</v>
+        <v>17.239</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>8.882</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>2.65</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>15.25</v>
+        <v>15.251</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>7.97</v>
@@ -736,22 +736,22 @@
         <v>7.4</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>8.52</v>
+        <v>8.521000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.03</v>
+        <v>11.028</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.86</v>
+        <v>2.858</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>25.23</v>
+        <v>25.233</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.73</v>
+        <v>4.735</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>11.28</v>
+        <v>11.279</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44042.18125</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.16</v>
+        <v>5.164</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.44</v>
+        <v>3.437</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.38</v>
+        <v>1.382</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>11.43</v>
+        <v>11.427</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>8.24</v>
+        <v>8.244</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.9</v>
+        <v>3.901</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17.71</v>
+        <v>17.706</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.4</v>
+        <v>6.399</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.55</v>
+        <v>2.547</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.45</v>
+        <v>3.446</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.53</v>
+        <v>4.528</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.97</v>
+        <v>4.968</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.33</v>
+        <v>1.334</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.14</v>
+        <v>4.136</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.66</v>
+        <v>5.657</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.95</v>
+        <v>3.947</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.28</v>
+        <v>1.275</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.67</v>
+        <v>0.672</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>55.65</v>
+        <v>55.648</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>11.74</v>
+        <v>11.735</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.82</v>
+        <v>3.817</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7.4</v>
+        <v>7.398</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.77</v>
+        <v>3.766</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.11</v>
+        <v>1.111</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.84</v>
+        <v>8.840999999999999</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.37</v>
+        <v>3.372</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.23</v>
+        <v>3.227</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.74</v>
+        <v>3.739</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.71</v>
+        <v>4.708</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.162</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>16.76</v>
+        <v>16.762</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.92</v>
+        <v>1.923</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.77</v>
+        <v>4.774</v>
       </c>
     </row>
     <row r="4">
@@ -866,100 +866,100 @@
         <v>14.31</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.49</v>
+        <v>10.493</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.23</v>
+        <v>1.233</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>31.33</v>
+        <v>31.329</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>25.08</v>
+        <v>25.078</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.16</v>
+        <v>11.156</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>40.88</v>
+        <v>40.881</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.45</v>
+        <v>17.452</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.6</v>
+        <v>7.599</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.12</v>
+        <v>11.117</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.55</v>
+        <v>12.546</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.41</v>
+        <v>13.414</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.62</v>
+        <v>3.621</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.28</v>
+        <v>11.279</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15.91</v>
+        <v>15.906</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.721</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.747</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>164.33</v>
+        <v>164.333</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>31.44</v>
+        <v>31.443</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.41</v>
+        <v>10.411</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>20.9</v>
+        <v>20.897</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.96</v>
+        <v>10.965</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.85</v>
+        <v>1.855</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>20.34</v>
+        <v>20.343</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.196</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.26</v>
+        <v>8.257999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.68</v>
+        <v>9.683999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.16</v>
+        <v>13.158</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.732</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>37.15</v>
+        <v>37.149</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.75</v>
+        <v>5.754</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.02</v>
+        <v>13.016</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>14.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44042.20208333333</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>33.44</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>27.14</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>47.56</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.09</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>175.8</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>33.67</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>22.56</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>23.07</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.08</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>43.32</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.88</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_27.xlsx
+++ b/DATA_goal/Junction_Flooding_27.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -468,9 +468,9 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,103 +967,207 @@
         <v>44042.19513888889</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.25</v>
+        <v>16.246</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.03</v>
+        <v>12.032</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.09</v>
+        <v>1.091</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>35.52</v>
+        <v>35.522</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>28.74</v>
+        <v>28.742</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.71</v>
+        <v>12.709</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>49.33</v>
+        <v>49.334</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.78</v>
+        <v>19.779</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>8.720000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.81</v>
+        <v>12.815</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>14.24</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.18</v>
+        <v>15.182</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.11</v>
+        <v>4.106</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.78</v>
+        <v>12.783</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.13</v>
+        <v>18.132</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.88</v>
+        <v>10.884</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.754</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.712</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>187.24</v>
+        <v>187.244</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>35.75</v>
+        <v>35.746</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.8</v>
+        <v>11.799</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>23.91</v>
+        <v>23.912</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.53</v>
+        <v>12.533</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.96</v>
+        <v>1.961</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>24.17</v>
+        <v>24.167</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.42</v>
+        <v>10.422</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>9.289999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.91</v>
+        <v>10.909</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.95</v>
+        <v>14.951</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.535</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>44.98</v>
+        <v>44.975</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.59</v>
+        <v>6.586</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.75</v>
+        <v>14.751</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44042.20208333333</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>33.44</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>27.14</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>47.56</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>17.09</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>175.8</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>43.32</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>13.88</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_27.xlsx
+++ b/DATA_goal/Junction_Flooding_27.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -468,9 +468,9 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,207 +967,103 @@
         <v>44042.19513888889</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.246</v>
+        <v>16.25</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.032</v>
+        <v>12.03</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.091</v>
+        <v>1.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>35.522</v>
+        <v>35.52</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>28.742</v>
+        <v>28.74</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.709</v>
+        <v>12.71</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>49.334</v>
+        <v>49.33</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.779</v>
+        <v>19.78</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>8.720000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.815</v>
+        <v>12.81</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>14.24</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.182</v>
+        <v>15.18</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.106</v>
+        <v>4.11</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.783</v>
+        <v>12.78</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.132</v>
+        <v>18.13</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.884</v>
+        <v>10.88</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.754</v>
+        <v>0.75</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.712</v>
+        <v>0.71</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>187.244</v>
+        <v>187.24</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>35.746</v>
+        <v>35.75</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.799</v>
+        <v>11.8</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>23.912</v>
+        <v>23.91</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.533</v>
+        <v>12.53</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.961</v>
+        <v>1.96</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>24.167</v>
+        <v>24.17</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.422</v>
+        <v>10.42</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>9.289999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.909</v>
+        <v>10.91</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.951</v>
+        <v>14.95</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.535</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>44.975</v>
+        <v>44.98</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.586</v>
+        <v>6.59</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.751</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44042.20208333333</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>33.44</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>27.14</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>47.56</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.09</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>175.8</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>33.67</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>22.56</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>23.07</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.08</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>43.32</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.88</v>
+        <v>14.75</v>
       </c>
     </row>
   </sheetData>
